--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77101.77509876381</v>
+        <v>5151068.34050911</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77101.77509876381</v>
+        <v>5151068.34050911</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1110936571.842742</v>
+        <v>40065633.54455947</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11092.92768334501</v>
+        <v>848089.323827827</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21988.32894588328</v>
+        <v>1662203.133967049</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32883.54026435115</v>
+        <v>2476316.944106271</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44011.83070390917</v>
+        <v>3289614.782810576</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55140.12114346718</v>
+        <v>4102912.621514882</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66268.41158302518</v>
+        <v>4916210.460219187</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77396.69860021461</v>
+        <v>5729508.298923486</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>88524.98561740408</v>
+        <v>6542806.137627786</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99653.27605696212</v>
+        <v>7356103.976332085</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>110781.5664965201</v>
+        <v>8169401.815036386</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>121909.8569360782</v>
+        <v>8982699.653740687</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>133038.0858400516</v>
+        <v>9795997.492444992</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>144166.3762796096</v>
+        <v>10609295.3311493</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>155294.6667191676</v>
+        <v>11422593.16985362</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>166422.9571587258</v>
+        <v>12235891.00855793</v>
       </c>
     </row>
   </sheetData>
